--- a/src/main/java/info/track.xlsx
+++ b/src/main/java/info/track.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/workspace/ece1186/src/main/java/TrackModel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/workspace/ece1186/src/main/java/info/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="110">
   <si>
     <t>Block Number</t>
   </si>
@@ -202,9 +202,6 @@
     <t>STATION; DORMONT</t>
   </si>
   <si>
-    <t>STATION;         MT LEBANON</t>
-  </si>
-  <si>
     <t>STATION; POPLAR</t>
   </si>
   <si>
@@ -359,6 +356,9 @@
   </si>
   <si>
     <t>CASTLE SHANNON</t>
+  </si>
+  <si>
+    <t>STATION;         MT LEBANON; SWITCH</t>
   </si>
 </sst>
 </file>
@@ -369,9 +369,16 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -462,36 +469,39 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -844,9 +854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L68" sqref="L68:L77"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -894,13 +904,13 @@
         <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -931,10 +941,10 @@
         <v>0.25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -995,7 +1005,7 @@
         <v>1.5</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1027,7 +1037,7 @@
         <v>2.5</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1088,7 +1098,7 @@
         <v>3.75</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -1112,7 +1122,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
@@ -1123,10 +1133,10 @@
         <v>4.125</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1190,10 +1200,10 @@
         <v>4.125</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="10"/>
     </row>
@@ -1226,10 +1236,10 @@
         <v>4.125</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1290,7 +1300,7 @@
         <v>3.375</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1322,7 +1332,7 @@
         <v>2.6909999999999998</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1386,10 +1396,10 @@
         <v>1.4909999999999997</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -1413,7 +1423,7 @@
         <v>40</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="0"/>
@@ -1424,13 +1434,13 @@
         <v>1.2409999999999997</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1550,7 +1560,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -1574,7 +1584,7 @@
         <v>55</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="0"/>
@@ -1585,10 +1595,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1649,7 +1659,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1684,7 +1694,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -1719,7 +1729,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1786,7 +1796,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L28" s="10"/>
     </row>
@@ -1822,7 +1832,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1953,7 +1963,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L33" s="10"/>
     </row>
@@ -1989,7 +1999,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2056,7 +2066,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2155,7 +2165,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L39" s="10"/>
     </row>
@@ -2191,7 +2201,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -2322,7 +2332,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L44" s="10"/>
     </row>
@@ -2358,7 +2368,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -2393,10 +2403,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2431,7 +2441,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -2455,7 +2465,7 @@
         <v>70</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" si="3"/>
@@ -2499,10 +2509,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2534,7 +2544,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2627,7 +2637,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2659,7 +2669,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2691,7 +2701,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2723,7 +2733,7 @@
         <v>0.37499999999999967</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2784,7 +2794,7 @@
         <v>1.1249999999999996</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2816,7 +2826,7 @@
         <v>1.8749999999999996</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2880,10 +2890,10 @@
         <v>2.2499999999999996</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L61" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2915,7 +2925,7 @@
         <v>1.8749999999999996</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2976,7 +2986,7 @@
         <v>0.37499999999999956</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -3008,7 +3018,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -3069,10 +3079,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -3107,10 +3117,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -3145,7 +3155,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -3212,7 +3222,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -3247,10 +3257,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -3285,10 +3295,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -3323,7 +3333,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -3390,7 +3400,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
@@ -3425,10 +3435,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -3459,10 +3469,10 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -3703,9 +3713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L143" sqref="L143:L145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3753,13 +3763,13 @@
         <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3790,10 +3800,10 @@
         <v>0.5</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3828,7 +3838,7 @@
         <v>1.5</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3860,7 +3870,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3892,7 +3902,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3953,7 +3963,7 @@
         <v>12</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -3986,7 +3996,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L8" s="10"/>
     </row>
@@ -4051,7 +4061,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4132,9 +4142,6 @@
       <c r="F13" s="3">
         <v>55</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>-3</v>
@@ -4144,10 +4151,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4170,6 +4177,9 @@
       <c r="F14" s="3">
         <v>70</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4179,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -4275,10 +4285,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -4310,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -4363,7 +4373,7 @@
         <v>60</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="0"/>
@@ -4404,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -4436,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -4471,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -4639,6 +4649,9 @@
       <c r="F29" s="3">
         <v>70</v>
       </c>
+      <c r="G29" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H29" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4648,10 +4661,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -4674,9 +4687,6 @@
       <c r="F30" s="3">
         <v>70</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="H30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4686,10 +4696,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -4753,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -4785,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -4817,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -4878,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -4913,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -5001,7 +5011,7 @@
         <v>70</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="3"/>
@@ -5012,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -5292,7 +5302,7 @@
         <v>70</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="3"/>
@@ -5303,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -5583,7 +5593,7 @@
         <v>70</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H58" s="3">
         <f t="shared" si="3"/>
@@ -5594,13 +5604,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -5635,10 +5645,10 @@
         <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L59" s="10"/>
     </row>
@@ -5729,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -5764,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L63" s="10"/>
     </row>
@@ -5800,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -5864,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -5954,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -5986,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -6108,10 +6118,10 @@
         <v>0</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L74" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -6143,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -6195,9 +6205,6 @@
       <c r="F77" s="3">
         <v>60</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="H77" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6207,13 +6214,13 @@
         <v>0</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="6"/>
         <v>Green</v>
@@ -6233,8 +6240,8 @@
       <c r="F78" s="3">
         <v>70</v>
       </c>
-      <c r="G78" s="10" t="s">
-        <v>57</v>
+      <c r="G78" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="H78" s="3">
         <f t="shared" si="4"/>
@@ -6245,13 +6252,13 @@
         <v>0</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L78" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -6477,6 +6484,9 @@
       <c r="F86" s="3">
         <v>70</v>
       </c>
+      <c r="G86" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H86" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6486,10 +6496,10 @@
         <v>0</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -6512,9 +6522,6 @@
       <c r="F87" s="3">
         <v>55</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="H87" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6524,10 +6531,10 @@
         <v>0</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -6580,7 +6587,7 @@
         <v>55</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H89" s="3">
         <f t="shared" si="4"/>
@@ -6591,10 +6598,10 @@
         <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L89" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -6626,7 +6633,7 @@
         <v>-0.375</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -6824,7 +6831,7 @@
         <v>55</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H97" s="3">
         <f t="shared" si="4"/>
@@ -6835,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="L97" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -6867,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -6899,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -6960,10 +6967,10 @@
         <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -6995,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -7030,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -7091,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -7127,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L106" s="10" t="str">
         <f>L74</f>
@@ -7250,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -7282,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -7467,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -7499,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -7618,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -7653,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -8343,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
@@ -8375,7 +8382,7 @@
         <v>0</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -8436,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
@@ -8468,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
@@ -8529,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
@@ -8561,10 +8568,10 @@
         <v>0</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
@@ -8573,7 +8580,7 @@
         <v>Green</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C152" s="5">
         <v>151</v>
@@ -8596,10 +8603,10 @@
         <v>0</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
@@ -8608,7 +8615,7 @@
         <v>Green</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C153" s="5">
         <v>152</v>
@@ -8631,10 +8638,10 @@
         <v>0</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
